--- a/data/raw/bis/BIS REER (2021-2025).xlsx
+++ b/data/raw/bis/BIS REER (2021-2025).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5f79c43fca06a053/Desktop/global_price_indices/data/raw/bis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_62947DC896309C86C8C5BD94DB3313DA3B727DB0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{65197070-6F72-455D-A887-B484AFCFAAFC}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_62947DC896309C86C8C5BD94DB3313DA3B727DB0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{359836A6-96F8-4F0B-B8C3-9BC09FF65552}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="6740" yWindow="4450" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="timeseries observations" sheetId="2" r:id="rId1"/>
@@ -859,6 +859,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1150,7 +1154,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BH129"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
